--- a/Game/Map/Stage3/Vartical.xlsx
+++ b/Game/Map/Stage3/Vartical.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waru5\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080CDA7-52F6-4CCC-A16F-1A042BF10EA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="45" windowWidth="16320" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,41 +141,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -244,6 +208,41 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,9 +534,9 @@
     <col min="60" max="70" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -566,14 +565,14 @@
       <c r="J1" s="1">
         <v>0</v>
       </c>
-      <c r="K1" s="2">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -604,16 +603,16 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -642,14 +641,14 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -680,14 +679,14 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -718,128 +717,129 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -870,14 +870,14 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>7</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1022,14 +1022,14 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1060,14 +1060,14 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1098,14 +1098,14 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1169,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1210,56 +1210,56 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="2">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1288,16 +1288,16 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1326,11 +1326,11 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1364,10 +1364,10 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1402,10 +1402,10 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1440,10 +1440,10 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1452,36 +1452,36 @@
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>5</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1511,27 +1511,27 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1552,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1592,16 +1592,16 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -1630,11 +1630,11 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -1642,37 +1642,37 @@
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2">
-        <v>5</v>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
@@ -1706,10 +1706,10 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1744,10 +1744,10 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1782,10 +1782,10 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1815,27 +1815,27 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>5</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1891,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>7</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>7</v>
       </c>
-      <c r="F38" s="1">
-        <v>5</v>
-      </c>
       <c r="G38" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>7</v>
@@ -1972,10 +1972,10 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2010,10 +2010,10 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2048,10 +2048,10 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2081,27 +2081,27 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2162,16 +2162,16 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
+      <c r="L43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2200,11 +2200,11 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2233,15 +2233,15 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -2276,10 +2276,10 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2352,10 +2352,10 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -2390,10 +2390,10 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2428,10 +2428,10 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>5</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2499,27 +2499,27 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>2</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2580,19 +2580,19 @@
       <c r="J54" s="1">
         <v>0</v>
       </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -2618,11 +2618,11 @@
       <c r="J55" s="1">
         <v>0</v>
       </c>
-      <c r="K55" s="2">
-        <v>5</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -2656,10 +2656,10 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="2">
-        <v>4</v>
-      </c>
-      <c r="L56" s="2">
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -2694,16 +2694,16 @@
       <c r="J57" s="1">
         <v>0</v>
       </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2732,11 +2732,11 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -2770,16 +2770,16 @@
       <c r="J59" s="1">
         <v>0</v>
       </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2808,11 +2808,11 @@
       <c r="J60" s="1">
         <v>0</v>
       </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2832,62 +2832,62 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>5</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
         <v>3</v>
       </c>
-      <c r="K62" s="2">
-        <v>5</v>
-      </c>
-      <c r="L62" s="2">
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2896,36 +2896,36 @@
         <v>0</v>
       </c>
       <c r="B63" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1">
-        <v>5</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2937,33 +2937,33 @@
         <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
-      <c r="K64" s="2">
-        <v>5</v>
-      </c>
-      <c r="L64" s="2">
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2972,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="B65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>5</v>
-      </c>
-      <c r="K65" s="2">
-        <v>3</v>
-      </c>
-      <c r="L65" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3036,10 +3036,10 @@
       <c r="J66" s="1">
         <v>0</v>
       </c>
-      <c r="K66" s="2">
-        <v>5</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3074,10 +3074,10 @@
       <c r="J67" s="1">
         <v>0</v>
       </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3112,10 +3112,10 @@
       <c r="J68" s="1">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3150,16 +3150,16 @@
       <c r="J69" s="1">
         <v>0</v>
       </c>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2">
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -3188,72 +3188,2618 @@
       <c r="J70" s="1">
         <v>0</v>
       </c>
-      <c r="K70" s="2">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2">
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>7</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7</v>
+      </c>
+      <c r="G88" s="1">
+        <v>7</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1">
+        <v>5</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>7</v>
+      </c>
+      <c r="J92" s="1">
+        <v>7</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>4</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3</v>
+      </c>
+      <c r="K103" s="1">
+        <v>5</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>7</v>
+      </c>
+      <c r="J107" s="1">
+        <v>7</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>5</v>
+      </c>
+      <c r="G110" s="1">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>7</v>
+      </c>
+      <c r="G111" s="1">
+        <v>7</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>4</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>5</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>2</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L70">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L137">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L70">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L137">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:BR10">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:BS10 A1:BS1 A2:L70">
+  <conditionalFormatting sqref="M2:BS10 A1:BS1 A2:L137">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:J70">
+  <conditionalFormatting sqref="A1:L137">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>

--- a/Game/Map/Stage3/Vartical.xlsx
+++ b/Game/Map/Stage3/Vartical.xlsx
@@ -141,6 +141,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -208,41 +243,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,7 +525,7 @@
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB47" sqref="AB47"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -5744,53 +5744,53 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L137">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L137">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:BR10">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
